--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABF/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABF/15/seed1/result_data_RandomForest.xlsx
@@ -491,15 +491,15 @@
         <v>-6.85</v>
       </c>
       <c r="E3" t="n">
-        <v>12.8679</v>
+        <v>12.3848</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.46960000000002</v>
+        <v>-21.54830000000002</v>
       </c>
       <c r="B4" t="n">
-        <v>5.207799999999999</v>
+        <v>5.077899999999999</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
@@ -508,7 +508,7 @@
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>13.15480000000001</v>
+        <v>12.82530000000002</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.252600000000001</v>
+        <v>5.180999999999998</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-21.2342</v>
+        <v>-21.2947</v>
       </c>
       <c r="B6" t="n">
         <v>7.87</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.48370000000001</v>
+        <v>-21.4684</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -567,7 +567,7 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.1366</v>
+        <v>5.1172</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>13.30620000000001</v>
+        <v>13.3101</v>
       </c>
     </row>
     <row r="10">
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.3268</v>
+        <v>13.5876</v>
       </c>
     </row>
     <row r="12">
@@ -678,7 +678,7 @@
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>12.1834</v>
+        <v>12.6787</v>
       </c>
     </row>
     <row r="15">
@@ -700,10 +700,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.48530000000002</v>
+        <v>-21.47400000000002</v>
       </c>
       <c r="B16" t="n">
-        <v>5.2381</v>
+        <v>5.230799999999999</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -746,7 +746,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>12.5433</v>
+        <v>13.08220000000001</v>
       </c>
     </row>
     <row r="19">
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.14520000000003</v>
+        <v>-22.28630000000003</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>5.637300000000003</v>
+        <v>5.174400000000005</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -865,7 +865,7 @@
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>12.92460000000001</v>
+        <v>12.75560000000001</v>
       </c>
     </row>
   </sheetData>
